--- a/file/xlfile.xlsx
+++ b/file/xlfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherho/Downloads/minting bot 2/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\freelance Projects\45_swap_bot\swap bot\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C39443-B45A-1449-95C9-24330C32874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED2B58-5223-4D8B-869B-7543C4F25C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1280" windowWidth="24620" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>PrivateKey</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>0xca1fbbb1072a133d9584546549f1d1041bc19587</t>
-  </si>
-  <si>
-    <t>0xd0e34b8374e2fa58c0accf45e0b19319e6abf570eb28eec88ad4966b2c0e62d5</t>
-  </si>
-  <si>
-    <t>0x78b1ac86b974b11bc046b3c905847ad5f09e728f</t>
-  </si>
-  <si>
-    <t>0xe30f42f229512b3b2c93d27ab595ed640cf5de2e6716fcb32b0f7ebf4086254d</t>
-  </si>
-  <si>
-    <t>0x4e8c05ecff6471871c42a77882f019cdcc2e9dbe</t>
-  </si>
-  <si>
-    <t>0xc79fd749d596e2fa7c921c33a35814d9f8b18b354ac37ba8815b584fad525225</t>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</t>
+  </si>
+  <si>
+    <t>ef48b57540eb8568227db04a0b2fb67986ae738179c8ae4a0492ccbc1466a721</t>
+  </si>
+  <si>
+    <t>493b55c328e2c78d0e8585b787c07cf2b5c086f83acff032ed063ea3162d8111</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ethbalance</t>
+  </si>
+  <si>
+    <t>tokenbalance</t>
   </si>
 </sst>
 </file>
@@ -366,48 +372,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>9.0000000000000006E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/file/xlfile.xlsx
+++ b/file/xlfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\freelance Projects\45_swap_bot\swap bot\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED2B58-5223-4D8B-869B-7543C4F25C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCEE566-7F53-4222-A64F-E5CA73DBF194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
-  <si>
-    <t>PrivateKey</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>amount</t>
   </si>
@@ -36,12 +33,6 @@
     <t>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</t>
   </si>
   <si>
-    <t>ef48b57540eb8568227db04a0b2fb67986ae738179c8ae4a0492ccbc1466a721</t>
-  </si>
-  <si>
-    <t>493b55c328e2c78d0e8585b787c07cf2b5c086f83acff032ed063ea3162d8111</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -55,6 +46,15 @@
   </si>
   <si>
     <t>tokenbalance</t>
+  </si>
+  <si>
+    <t>privatekey</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,85 +386,95 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>9.0000000000000006E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>8.0000000000000007E-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/xlfile.xlsx
+++ b/file/xlfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\freelance Projects\45_swap_bot\swap bot\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCEE566-7F53-4222-A64F-E5CA73DBF194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA74086-A49C-4045-8856-1A39A6CDDED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>amount</t>
   </si>
@@ -55,16 +55,37 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>publickey</t>
+  </si>
+  <si>
+    <t>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24272A"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,96 +406,127 @@
     <col min="2" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>

--- a/file/xlfile.xlsx
+++ b/file/xlfile.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,7 +413,13 @@
         <v>privatekey</v>
       </c>
       <c r="D1" t="str">
+        <v>amount</v>
+      </c>
+      <c r="E1" t="str">
         <v>DAI</v>
+      </c>
+      <c r="F1" t="str">
+        <v>ETH</v>
       </c>
     </row>
     <row r="2">
@@ -426,8 +432,14 @@
       <c r="C2" t="str">
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
-      <c r="D2" t="str">
-        <v>88.218902116132389524</v>
+      <c r="D2">
+        <v>0.0001</v>
+      </c>
+      <c r="E2">
+        <v>88.21890211613238</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0.016282064125387055</v>
       </c>
     </row>
     <row r="3">
@@ -440,8 +452,11 @@
       <c r="C3" t="str">
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
-      <c r="D3" t="str">
-        <v>88.218902116132389524</v>
+      <c r="E3">
+        <v>88.21890211613238</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0.016282064125387055</v>
       </c>
     </row>
     <row r="4">
@@ -454,13 +469,118 @@
       <c r="C4" t="str">
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
-      <c r="D4" t="str">
-        <v>88.218902116132389524</v>
+      <c r="E4">
+        <v>88.21890211613238</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0.016282064125387055</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>d</v>
+      </c>
+      <c r="B5" t="str">
+        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
+      </c>
+      <c r="C5" t="str">
+        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      </c>
+      <c r="E5">
+        <v>88.21890211613238</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0.016282064125387055</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>a</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
+      </c>
+      <c r="C6" t="str">
+        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      </c>
+      <c r="E6">
+        <v>88.21890211613238</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0.016282064125387055</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>b</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
+      </c>
+      <c r="C7" t="str">
+        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      </c>
+      <c r="E7">
+        <v>88.21890211613238</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0.016282064125387055</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>c</v>
+      </c>
+      <c r="B8" t="str">
+        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
+      </c>
+      <c r="C8" t="str">
+        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      </c>
+      <c r="E8">
+        <v>88.21890211613238</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0.016282064125387055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>d</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
+      </c>
+      <c r="C9" t="str">
+        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      </c>
+      <c r="E9">
+        <v>88.21890211613238</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0.016282064125387055</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>f</v>
+      </c>
+      <c r="B10" t="str">
+        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
+      </c>
+      <c r="C10" t="str">
+        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      </c>
+      <c r="E10">
+        <v>88.21890211613238</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0.016282064125387055</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/file/xlfile.xlsx
+++ b/file/xlfile.xlsx
@@ -436,10 +436,10 @@
         <v>0.0001</v>
       </c>
       <c r="E2">
-        <v>88.21890211613238</v>
+        <v>27.325818163183097</v>
       </c>
       <c r="F2" t="str">
-        <v>0.016282064125387055</v>
+        <v>0.001454798238230963</v>
       </c>
     </row>
     <row r="3">
@@ -453,10 +453,10 @@
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
       <c r="E3">
-        <v>88.21890211613238</v>
+        <v>27.325818163183097</v>
       </c>
       <c r="F3" t="str">
-        <v>0.016282064125387055</v>
+        <v>0.001454798238230963</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +470,10 @@
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
       <c r="E4">
-        <v>88.21890211613238</v>
+        <v>27.325818163183097</v>
       </c>
       <c r="F4" t="str">
-        <v>0.016282064125387055</v>
+        <v>0.001454798238230963</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
       <c r="E5">
-        <v>88.21890211613238</v>
+        <v>27.325818163183097</v>
       </c>
       <c r="F5" t="str">
-        <v>0.016282064125387055</v>
+        <v>0.001454798238230963</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
       <c r="E6">
-        <v>88.21890211613238</v>
+        <v>27.325818163183097</v>
       </c>
       <c r="F6" t="str">
-        <v>0.016282064125387055</v>
+        <v>0.001454798238230963</v>
       </c>
     </row>
     <row r="7">
@@ -521,10 +521,10 @@
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
       <c r="E7">
-        <v>88.21890211613238</v>
+        <v>27.325818163183097</v>
       </c>
       <c r="F7" t="str">
-        <v>0.016282064125387055</v>
+        <v>0.001454798238230963</v>
       </c>
     </row>
     <row r="8">
@@ -538,10 +538,10 @@
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
       <c r="E8">
-        <v>88.21890211613238</v>
+        <v>27.325818163183097</v>
       </c>
       <c r="F8" t="str">
-        <v>0.016282064125387055</v>
+        <v>0.001454798238230963</v>
       </c>
     </row>
     <row r="9">
@@ -555,10 +555,10 @@
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
       <c r="E9">
-        <v>88.21890211613238</v>
+        <v>27.325818163183097</v>
       </c>
       <c r="F9" t="str">
-        <v>0.016282064125387055</v>
+        <v>0.001454798238230963</v>
       </c>
     </row>
     <row r="10">
@@ -572,10 +572,10 @@
         <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
       </c>
       <c r="E10">
-        <v>88.21890211613238</v>
+        <v>27.325818163183097</v>
       </c>
       <c r="F10" t="str">
-        <v>0.016282064125387055</v>
+        <v>0.001454798238230963</v>
       </c>
     </row>
   </sheetData>

--- a/file/xlfile.xlsx
+++ b/file/xlfile.xlsx
@@ -1,41 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\freelance Projects\45_swap_bot\swap bot\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E84D67-9E04-46E6-B39D-44246A54EE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4812" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>publickey</t>
+  </si>
+  <si>
+    <t>privatekey</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>DAI</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</t>
+  </si>
+  <si>
+    <t>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</t>
+  </si>
+  <si>
+    <t>0.001454798238230963</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +98,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,191 +437,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>group</v>
-      </c>
-      <c r="B1" t="str">
-        <v>publickey</v>
-      </c>
-      <c r="C1" t="str">
-        <v>privatekey</v>
-      </c>
-      <c r="D1" t="str">
-        <v>amount</v>
-      </c>
-      <c r="E1" t="str">
-        <v>DAI</v>
-      </c>
-      <c r="F1" t="str">
-        <v>ETH</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>a</v>
-      </c>
-      <c r="B2" t="str">
-        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
-      </c>
-      <c r="C2" t="str">
-        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E2">
         <v>27.325818163183097</v>
       </c>
-      <c r="F2" t="str">
-        <v>0.001454798238230963</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>b</v>
-      </c>
-      <c r="B3" t="str">
-        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
-      </c>
-      <c r="C3" t="str">
-        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="E3">
         <v>27.325818163183097</v>
       </c>
-      <c r="F3" t="str">
-        <v>0.001454798238230963</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>c</v>
-      </c>
-      <c r="B4" t="str">
-        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
-      </c>
-      <c r="C4" t="str">
-        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="E4">
         <v>27.325818163183097</v>
       </c>
-      <c r="F4" t="str">
-        <v>0.001454798238230963</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>d</v>
-      </c>
-      <c r="B5" t="str">
-        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
-      </c>
-      <c r="C5" t="str">
-        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="E5">
         <v>27.325818163183097</v>
       </c>
-      <c r="F5" t="str">
-        <v>0.001454798238230963</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>a</v>
-      </c>
-      <c r="B6" t="str">
-        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
-      </c>
-      <c r="C6" t="str">
-        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
       <c r="E6">
         <v>27.325818163183097</v>
       </c>
-      <c r="F6" t="str">
-        <v>0.001454798238230963</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>b</v>
-      </c>
-      <c r="B7" t="str">
-        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
-      </c>
-      <c r="C7" t="str">
-        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
       <c r="E7">
         <v>27.325818163183097</v>
       </c>
-      <c r="F7" t="str">
-        <v>0.001454798238230963</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>c</v>
-      </c>
-      <c r="B8" t="str">
-        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
-      </c>
-      <c r="C8" t="str">
-        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
       <c r="E8">
         <v>27.325818163183097</v>
       </c>
-      <c r="F8" t="str">
-        <v>0.001454798238230963</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>d</v>
-      </c>
-      <c r="B9" t="str">
-        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
-      </c>
-      <c r="C9" t="str">
-        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
       <c r="E9">
         <v>27.325818163183097</v>
       </c>
-      <c r="F9" t="str">
-        <v>0.001454798238230963</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>f</v>
-      </c>
-      <c r="B10" t="str">
-        <v>0xE724393281a5C6dD3B7Cb6DED67A4d3633caC0B8</v>
-      </c>
-      <c r="C10" t="str">
-        <v>6f5dcfb979aa69df5e95d6701c4b1506b5260815cf32748828c944c815fa4661</v>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="E10">
         <v>27.325818163183097</v>
       </c>
-      <c r="F10" t="str">
-        <v>0.001454798238230963</v>
+      <c r="F10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
+    <ignoredError sqref="A1:F1 A4:F10 A2 C2:F2 A3:B3 D3:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>